--- a/results/rural_tes.xlsx
+++ b/results/rural_tes.xlsx
@@ -411,22 +411,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.002363396451297175</v>
+        <v>0.002315515016337617</v>
       </c>
       <c r="C2">
-        <v>0.003148035624093772</v>
+        <v>0.003124247751540683</v>
       </c>
       <c r="D2">
-        <v>0.7507527656957594</v>
+        <v>0.741143212856839</v>
       </c>
       <c r="E2">
-        <v>0.458121701730221</v>
+        <v>0.4638483474361308</v>
       </c>
       <c r="F2">
-        <v>-0.004041330182837079</v>
+        <v>-0.004040814827193602</v>
       </c>
       <c r="G2">
-        <v>0.008768123085431428</v>
+        <v>0.008671844859868837</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -444,22 +444,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.009637167980913413</v>
+        <v>-0.008525952246123306</v>
       </c>
       <c r="C3">
-        <v>0.002987845445934232</v>
+        <v>0.002284134526907826</v>
       </c>
       <c r="D3">
-        <v>-3.225457325454158</v>
+        <v>-3.732683931565719</v>
       </c>
       <c r="E3">
-        <v>0.00283568126625384</v>
+        <v>0.0007136324417749069</v>
       </c>
       <c r="F3">
-        <v>-0.01571598524708095</v>
+        <v>-0.01317305888254948</v>
       </c>
       <c r="G3">
-        <v>-0.003558350714745878</v>
+        <v>-0.003878845609697127</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.002819505810580854</v>
+        <v>-0.00273705924570238</v>
       </c>
       <c r="C4">
-        <v>0.005114483045948079</v>
+        <v>0.004254439201979961</v>
       </c>
       <c r="D4">
-        <v>-0.5512787480671368</v>
+        <v>-0.6433419578374955</v>
       </c>
       <c r="E4">
-        <v>0.5886157533778237</v>
+        <v>0.5285858791772688</v>
       </c>
       <c r="F4">
-        <v>-0.0136101218134865</v>
+        <v>-0.01171314134898445</v>
       </c>
       <c r="G4">
-        <v>0.007971110192324793</v>
+        <v>0.006239022857579685</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -510,22 +510,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.003696745421444225</v>
+        <v>0.003641370155372403</v>
       </c>
       <c r="C5">
-        <v>0.005871397936936492</v>
+        <v>0.006060945140832143</v>
       </c>
       <c r="D5">
-        <v>0.6296192935907643</v>
+        <v>0.6007924623571924</v>
       </c>
       <c r="E5">
-        <v>0.5373144568919823</v>
+        <v>0.5559044721278052</v>
       </c>
       <c r="F5">
-        <v>-0.008690821409562784</v>
+        <v>-0.009146106319148395</v>
       </c>
       <c r="G5">
-        <v>0.01608431225245123</v>
+        <v>0.0164288466298932</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -543,22 +543,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.003793873760587866</v>
+        <v>0.003486218037150982</v>
       </c>
       <c r="C6">
-        <v>0.002968851343739028</v>
+        <v>0.003011693832601366</v>
       </c>
       <c r="D6">
-        <v>1.277892801399005</v>
+        <v>1.157560572529958</v>
       </c>
       <c r="E6">
-        <v>0.2301536339621388</v>
+        <v>0.2739439051793502</v>
       </c>
       <c r="F6">
-        <v>-0.002821139264168718</v>
+        <v>-0.003224254001555567</v>
       </c>
       <c r="G6">
-        <v>0.01040888678534445</v>
+        <v>0.01019669007585753</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -576,22 +576,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.0006883969597910479</v>
+        <v>-0.001149958723666632</v>
       </c>
       <c r="C7">
-        <v>0.005753486602401005</v>
+        <v>0.006069182291666488</v>
       </c>
       <c r="D7">
-        <v>-0.1196486595630154</v>
+        <v>-0.1894750673819148</v>
       </c>
       <c r="E7">
-        <v>0.9071311063283209</v>
+        <v>0.8535110805895657</v>
       </c>
       <c r="F7">
-        <v>-0.01350796399298323</v>
+        <v>-0.01467293958751582</v>
       </c>
       <c r="G7">
-        <v>0.01213117007340114</v>
+        <v>0.01237302214018256</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -609,22 +609,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.0002485452502591174</v>
+        <v>-0.0007757124622579507</v>
       </c>
       <c r="C8">
-        <v>0.004903942793127634</v>
+        <v>0.00411874662934079</v>
       </c>
       <c r="D8">
-        <v>-0.05068273851143364</v>
+        <v>-0.1883370190173859</v>
       </c>
       <c r="E8">
-        <v>0.9602056721537291</v>
+        <v>0.8529804754582583</v>
       </c>
       <c r="F8">
-        <v>-0.01064443956448827</v>
+        <v>-0.00950706526794717</v>
       </c>
       <c r="G8">
-        <v>0.01014734906397003</v>
+        <v>0.007955640343431269</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -642,22 +642,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.003273840479674067</v>
+        <v>0.003602742737797285</v>
       </c>
       <c r="C9">
-        <v>0.002961174368201127</v>
+        <v>0.003857973880273861</v>
       </c>
       <c r="D9">
-        <v>1.10558855122837</v>
+        <v>0.9338432165698182</v>
       </c>
       <c r="E9">
-        <v>0.2852524164000528</v>
+        <v>0.3642647778097596</v>
       </c>
       <c r="F9">
-        <v>-0.003003568755393652</v>
+        <v>-0.004575796535252458</v>
       </c>
       <c r="G9">
-        <v>0.009551249714741786</v>
+        <v>0.01178128201084703</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.002531584701993263</v>
+        <v>0.004318716421488566</v>
       </c>
       <c r="C10">
-        <v>0.007263455634706031</v>
+        <v>0.002638379663085227</v>
       </c>
       <c r="D10">
-        <v>0.3485372292902732</v>
+        <v>1.636882091654093</v>
       </c>
       <c r="E10">
-        <v>0.7334752816747268</v>
+        <v>0.1299171633906299</v>
       </c>
       <c r="F10">
-        <v>-0.01329412562262296</v>
+        <v>-0.001488318063649595</v>
       </c>
       <c r="G10">
-        <v>0.01835729502660948</v>
+        <v>0.01012575090662673</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -708,22 +708,22 @@
         </is>
       </c>
       <c r="B11">
-        <v>-0.01193316000752263</v>
+        <v>-0.01310560965193272</v>
       </c>
       <c r="C11">
-        <v>0.007003266679358503</v>
+        <v>0.001400565833698258</v>
       </c>
       <c r="D11">
-        <v>-1.70394196792399</v>
+        <v>-9.35736781278375</v>
       </c>
       <c r="E11">
-        <v>0.1141244117090618</v>
+        <v>1.429774479897861e-06</v>
       </c>
       <c r="F11">
-        <v>-0.02719196729808995</v>
+        <v>-0.01618823426763396</v>
       </c>
       <c r="G11">
-        <v>0.003325647283044681</v>
+        <v>-0.01002298503623148</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -741,22 +741,22 @@
         </is>
       </c>
       <c r="B12">
-        <v>-0.0001504109308561989</v>
+        <v>-0.0005351410778627739</v>
       </c>
       <c r="C12">
-        <v>0.006374246874813007</v>
+        <v>0.005439300071807437</v>
       </c>
       <c r="D12">
-        <v>-0.02359665915208395</v>
+        <v>-0.0983841800963466</v>
       </c>
       <c r="E12">
-        <v>0.9815621827235914</v>
+        <v>0.9232515481512686</v>
       </c>
       <c r="F12">
-        <v>-0.01403870180116502</v>
+        <v>-0.01238635785872669</v>
       </c>
       <c r="G12">
-        <v>0.01373787993945262</v>
+        <v>0.01131607570300115</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -774,22 +774,22 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.002974376355270464</v>
+        <v>-0.002644375968799835</v>
       </c>
       <c r="C13">
-        <v>0.009779110328104464</v>
+        <v>0.009248267139268055</v>
       </c>
       <c r="D13">
-        <v>-0.3041561303099648</v>
+        <v>-0.2859320485641942</v>
       </c>
       <c r="E13">
-        <v>0.7662187087209209</v>
+        <v>0.7798061702288663</v>
       </c>
       <c r="F13">
-        <v>-0.02428122740087577</v>
+        <v>-0.02279461906402691</v>
       </c>
       <c r="G13">
-        <v>0.01833247469033484</v>
+        <v>0.01750586712642724</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -807,22 +807,22 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.02069462207297451</v>
+        <v>0.02066016369617673</v>
       </c>
       <c r="C14">
-        <v>0.02446622503889681</v>
+        <v>0.01103345699909204</v>
       </c>
       <c r="D14">
-        <v>0.8458445076865703</v>
+        <v>1.87250140168008</v>
       </c>
       <c r="E14">
-        <v>0.4300747548009372</v>
+        <v>0.1102956802699418</v>
       </c>
       <c r="F14">
-        <v>-0.03917207392748187</v>
+        <v>-0.006337732993999985</v>
       </c>
       <c r="G14">
-        <v>0.08056131807343091</v>
+        <v>0.04765806038635345</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -840,22 +840,22 @@
         </is>
       </c>
       <c r="B15">
-        <v>-0.007160219612140755</v>
+        <v>-0.008377350323960151</v>
       </c>
       <c r="C15">
-        <v>0.01217024319337278</v>
+        <v>0.001013719747201743</v>
       </c>
       <c r="D15">
-        <v>-0.5883382524385219</v>
+        <v>-8.263970734598855</v>
       </c>
       <c r="E15">
-        <v>0.5777640004853897</v>
+        <v>0.00016985133280816</v>
       </c>
       <c r="F15">
-        <v>-0.03693973191332099</v>
+        <v>-0.01085783318712778</v>
       </c>
       <c r="G15">
-        <v>0.02261929268903948</v>
+        <v>-0.005896867460792525</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.001081761824810218</v>
+        <v>0.001108433593868975</v>
       </c>
       <c r="C16">
-        <v>0.002588095039757221</v>
+        <v>0.001249530042738139</v>
       </c>
       <c r="D16">
-        <v>0.4179760820961558</v>
+        <v>0.8870803869909563</v>
       </c>
       <c r="E16">
-        <v>0.6857606969680662</v>
+        <v>0.400916553293134</v>
       </c>
       <c r="F16">
-        <v>-0.004772915907379085</v>
+        <v>-0.001772987851747013</v>
       </c>
       <c r="G16">
-        <v>0.006936439556999521</v>
+        <v>0.003989855039484962</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -906,22 +906,22 @@
         </is>
       </c>
       <c r="B17">
-        <v>-0.006196465311098708</v>
+        <v>-0.005845120397863127</v>
       </c>
       <c r="C17">
-        <v>0.003832387829574937</v>
+        <v>0.002691816381430096</v>
       </c>
       <c r="D17">
-        <v>-1.616868017187597</v>
+        <v>-2.171440978733385</v>
       </c>
       <c r="E17">
-        <v>0.1403618032682733</v>
+        <v>0.06167984879223695</v>
       </c>
       <c r="F17">
-        <v>-0.01486592889039232</v>
+        <v>-0.01205246010465124</v>
       </c>
       <c r="G17">
-        <v>0.002472998268194901</v>
+        <v>0.0003622193089249885</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.005477994693955466</v>
+        <v>0.004247962792324</v>
       </c>
       <c r="C18">
-        <v>0.009712715953168662</v>
+        <v>0.007700925172099697</v>
       </c>
       <c r="D18">
-        <v>0.5640023573600269</v>
+        <v>0.5516172014908399</v>
       </c>
       <c r="E18">
-        <v>0.5823523641120949</v>
+        <v>0.5905670336502802</v>
       </c>
       <c r="F18">
-        <v>-0.01550505242039624</v>
+        <v>-0.01238887457524552</v>
       </c>
       <c r="G18">
-        <v>0.02646104180830717</v>
+        <v>0.02088480015989352</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.02076580778308603</v>
+        <v>0.02161506414999733</v>
       </c>
       <c r="C19">
-        <v>0.009470401145765099</v>
+        <v>0.005864826787369447</v>
       </c>
       <c r="D19">
-        <v>2.192706250080222</v>
+        <v>3.685541778752573</v>
       </c>
       <c r="E19">
-        <v>0.04712431524614225</v>
+        <v>0.002744686638672728</v>
       </c>
       <c r="F19">
-        <v>0.0003062499836457983</v>
+        <v>0.008944876182981008</v>
       </c>
       <c r="G19">
-        <v>0.04122536558252626</v>
+        <v>0.03428525211701365</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1005,22 +1005,22 @@
         </is>
       </c>
       <c r="B20">
-        <v>-0.01999907551436598</v>
+        <v>-0.01965580520347286</v>
       </c>
       <c r="C20">
-        <v>0.02304186274855584</v>
+        <v>0.02469299631302937</v>
       </c>
       <c r="D20">
-        <v>-0.8679452582721177</v>
+        <v>-0.7960072951171741</v>
       </c>
       <c r="E20">
-        <v>0.4057713904484672</v>
+        <v>0.4465144749150807</v>
       </c>
       <c r="F20">
-        <v>-0.07133954512655848</v>
+        <v>-0.07551524368394191</v>
       </c>
       <c r="G20">
-        <v>0.03134139409782651</v>
+        <v>0.0362036332769962</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1038,22 +1038,22 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.001105915385938036</v>
+        <v>0.001826086650051617</v>
       </c>
       <c r="C21">
-        <v>0.01093260957111155</v>
+        <v>0.008288482771267518</v>
       </c>
       <c r="D21">
-        <v>0.1011574938942591</v>
+        <v>0.2203161544090852</v>
       </c>
       <c r="E21">
-        <v>0.9214249328334572</v>
+        <v>0.8305413967942683</v>
       </c>
       <c r="F21">
-        <v>-0.02325345675305261</v>
+        <v>-0.01692376401970071</v>
       </c>
       <c r="G21">
-        <v>0.02546528752492868</v>
+        <v>0.02057593731980395</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.006836529068205399</v>
+        <v>0.006051055177367923</v>
       </c>
       <c r="C22">
-        <v>0.009812876415101833</v>
+        <v>0.006510425188243499</v>
       </c>
       <c r="D22">
-        <v>0.6966896126077884</v>
+        <v>0.9294408586853736</v>
       </c>
       <c r="E22">
-        <v>0.4910273794918018</v>
+        <v>0.3615488461591269</v>
       </c>
       <c r="F22">
-        <v>-0.01315164609696875</v>
+        <v>-0.007357416492635709</v>
       </c>
       <c r="G22">
-        <v>0.02682470423337955</v>
+        <v>0.01945952684737156</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1104,22 +1104,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>-0.02403882734158502</v>
+        <v>-0.0227829976486499</v>
       </c>
       <c r="C23">
-        <v>0.005620733293995122</v>
+        <v>0.003324223811951887</v>
       </c>
       <c r="D23">
-        <v>-4.276813377227267</v>
+        <v>-6.853629279333147</v>
       </c>
       <c r="E23">
-        <v>0.000159957993556724</v>
+        <v>3.4895946078775e-07</v>
       </c>
       <c r="F23">
-        <v>-0.03548788640282001</v>
+        <v>-0.02962936474734534</v>
       </c>
       <c r="G23">
-        <v>-0.01258976828035003</v>
+        <v>-0.01593663054995446</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.03285586780637197</v>
+        <v>0.03428557469783257</v>
       </c>
       <c r="C24">
-        <v>0.003521949976925223</v>
+        <v>1.074233638870622e-13</v>
       </c>
       <c r="D24">
-        <v>9.328885424731729</v>
+        <v>319163108072.8224</v>
       </c>
       <c r="E24">
-        <v>1.473413375018075e-06</v>
+        <v>3.588451490448621e-122</v>
       </c>
       <c r="F24">
-        <v>0.02510410817257446</v>
+        <v>0.03428557469759613</v>
       </c>
       <c r="G24">
-        <v>0.04060762744016947</v>
+        <v>0.034285574698069</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1170,22 +1170,22 @@
         </is>
       </c>
       <c r="B25">
-        <v>-0.01931950981886072</v>
+        <v>-0.01886492906962774</v>
       </c>
       <c r="C25">
-        <v>0.004150011453052394</v>
+        <v>0.001383711983648126</v>
       </c>
       <c r="D25">
-        <v>-4.6552907232704</v>
+        <v>-13.63356630032991</v>
       </c>
       <c r="E25">
-        <v>0.0006990444196559798</v>
+        <v>3.101240471003141e-08</v>
       </c>
       <c r="F25">
-        <v>-0.02845362344123938</v>
+        <v>-0.02191045861147823</v>
       </c>
       <c r="G25">
-        <v>-0.01018539619648206</v>
+        <v>-0.01581939952777725</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1203,22 +1203,22 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.01877767046069403</v>
+        <v>0.01777084518055593</v>
       </c>
       <c r="C26">
-        <v>0.01082351228562385</v>
+        <v>0.009018323030669252</v>
       </c>
       <c r="D26">
-        <v>1.734896211614705</v>
+        <v>1.970526573523853</v>
       </c>
       <c r="E26">
-        <v>0.133448678339283</v>
+        <v>0.09627991908825974</v>
       </c>
       <c r="F26">
-        <v>-0.007706510022012135</v>
+        <v>-0.004296196320642275</v>
       </c>
       <c r="G26">
-        <v>0.0452618509434002</v>
+        <v>0.03983788668175413</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.004777419750847961</v>
+        <v>0.004929005395899225</v>
       </c>
       <c r="C27">
-        <v>0.01658471677801485</v>
+        <v>0.01063786333056994</v>
       </c>
       <c r="D27">
-        <v>0.2880615819246933</v>
+        <v>0.4633454334513572</v>
       </c>
       <c r="E27">
-        <v>0.7829913064058714</v>
+        <v>0.6594478299538175</v>
       </c>
       <c r="F27">
-        <v>-0.03580392028115938</v>
+        <v>-0.02110090845853284</v>
       </c>
       <c r="G27">
-        <v>0.0453587597828553</v>
+        <v>0.03095891925033128</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1269,22 +1269,22 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.007030411860599769</v>
+        <v>0.00707318486991202</v>
       </c>
       <c r="C28">
-        <v>0.007696552089367425</v>
+        <v>0.007308506019237802</v>
       </c>
       <c r="D28">
-        <v>0.9134495263550662</v>
+        <v>0.9678017437891742</v>
       </c>
       <c r="E28">
-        <v>0.3754552923295451</v>
+        <v>0.3484899623320173</v>
       </c>
       <c r="F28">
-        <v>-0.009374400592659565</v>
+        <v>-0.008504526963513274</v>
       </c>
       <c r="G28">
-        <v>0.0234352243138591</v>
+        <v>0.02265089670333731</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="B29">
-        <v>-0.03250029277468091</v>
+        <v>-0.03057465967900467</v>
       </c>
       <c r="C29">
-        <v>0.01013657622192379</v>
+        <v>0.00980054796141076</v>
       </c>
       <c r="D29">
-        <v>-3.206239667432084</v>
+        <v>-3.11968879693167</v>
       </c>
       <c r="E29">
-        <v>0.005888141156495855</v>
+        <v>0.007028713636782208</v>
       </c>
       <c r="F29">
-        <v>-0.0541058935564324</v>
+        <v>-0.05146403317759041</v>
       </c>
       <c r="G29">
-        <v>-0.01089469199292942</v>
+        <v>-0.009685286180418921</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1335,22 +1335,22 @@
         </is>
       </c>
       <c r="B30">
-        <v>-8.615629127603323e-05</v>
+        <v>-6.850359980201462e-05</v>
       </c>
       <c r="C30">
-        <v>0.003529224653306118</v>
+        <v>0.006876451186519901</v>
       </c>
       <c r="D30">
-        <v>-0.0244122434074361</v>
+        <v>-0.009962057163483418</v>
       </c>
       <c r="E30">
-        <v>0.9810040582987278</v>
+        <v>0.9922475011247518</v>
       </c>
       <c r="F30">
-        <v>-0.007949758858695182</v>
+        <v>-0.01539019165227412</v>
       </c>
       <c r="G30">
-        <v>0.007777446276143116</v>
+        <v>0.01525318445267009</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1368,22 +1368,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.004630920642894219</v>
+        <v>0.004586153333091201</v>
       </c>
       <c r="C31">
-        <v>0.006959849487952911</v>
+        <v>0.007159211465210904</v>
       </c>
       <c r="D31">
-        <v>0.6653765502989784</v>
+        <v>0.6405947575898426</v>
       </c>
       <c r="E31">
-        <v>0.5208601984790076</v>
+        <v>0.5361883907960702</v>
       </c>
       <c r="F31">
-        <v>-0.01087659040519044</v>
+        <v>-0.01136556388213079</v>
       </c>
       <c r="G31">
-        <v>0.02013843169097888</v>
+        <v>0.02053787054831319</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1401,22 +1401,22 @@
         </is>
       </c>
       <c r="B32">
-        <v>-0.002748331705631827</v>
+        <v>-0.003468388050166932</v>
       </c>
       <c r="C32">
-        <v>0.001840957717280382</v>
+        <v>0.001122030408315955</v>
       </c>
       <c r="D32">
-        <v>-1.492881493058892</v>
+        <v>-3.091171170104565</v>
       </c>
       <c r="E32">
-        <v>0.1663304774053354</v>
+        <v>0.01142115350379516</v>
       </c>
       <c r="F32">
-        <v>-0.00685024112036821</v>
+        <v>-0.005968427596045734</v>
       </c>
       <c r="G32">
-        <v>0.001353577709104556</v>
+        <v>-0.0009683485042881307</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="B33">
-        <v>-0.006571749964168438</v>
+        <v>-0.006545917494611241</v>
       </c>
       <c r="C33">
-        <v>0.008369358027172091</v>
+        <v>0.002521392965748676</v>
       </c>
       <c r="D33">
-        <v>-0.7852155377787029</v>
+        <v>-2.59615124795415</v>
       </c>
       <c r="E33">
-        <v>0.4505298657565837</v>
+        <v>0.02666702302093632</v>
       </c>
       <c r="F33">
-        <v>-0.02521984175069377</v>
+        <v>-0.01216393112272076</v>
       </c>
       <c r="G33">
-        <v>0.01207634182235689</v>
+        <v>-0.0009279038665017201</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1467,22 +1467,22 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.03065463703679205</v>
+        <v>0.03211271479749788</v>
       </c>
       <c r="C34">
-        <v>0.01462848428636262</v>
+        <v>0.01163550286794928</v>
       </c>
       <c r="D34">
-        <v>2.095544311817034</v>
+        <v>2.759890583324452</v>
       </c>
       <c r="E34">
-        <v>0.06254381225209642</v>
+        <v>0.02810041111860379</v>
       </c>
       <c r="F34">
-        <v>-0.001939657147323207</v>
+        <v>0.004599122536467611</v>
       </c>
       <c r="G34">
-        <v>0.06324893122090731</v>
+        <v>0.05962630705852815</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1500,22 +1500,22 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.008461655306942911</v>
+        <v>0.008963074735803577</v>
       </c>
       <c r="C35">
-        <v>0.01252862152913718</v>
+        <v>0.002525926615443385</v>
       </c>
       <c r="D35">
-        <v>0.6753859781991232</v>
+        <v>3.548430378382254</v>
       </c>
       <c r="E35">
-        <v>0.5147436837355266</v>
+        <v>0.009363418378733359</v>
       </c>
       <c r="F35">
-        <v>-0.01945385308395933</v>
+        <v>0.002990207403182467</v>
       </c>
       <c r="G35">
-        <v>0.03637716369784515</v>
+        <v>0.01493594206842469</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1533,22 +1533,22 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.008278099819761396</v>
+        <v>0.007449046341102376</v>
       </c>
       <c r="C36">
-        <v>0.008062128416765827</v>
+        <v>0.001611468314306988</v>
       </c>
       <c r="D36">
-        <v>1.02678838537804</v>
+        <v>4.622521134897918</v>
       </c>
       <c r="E36">
-        <v>0.3516048938489316</v>
+        <v>0.00572234322199193</v>
       </c>
       <c r="F36">
-        <v>-0.01244626104494419</v>
+        <v>0.003306635163641362</v>
       </c>
       <c r="G36">
-        <v>0.02900246068446698</v>
+        <v>0.01159145751856339</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="B37">
-        <v>-0.0099516999535587</v>
+        <v>-0.01095368544006974</v>
       </c>
       <c r="C37">
-        <v>0.006988896745912078</v>
+        <v>0.005026047377657825</v>
       </c>
       <c r="D37">
-        <v>-1.423930030069426</v>
+        <v>-2.179383642255723</v>
       </c>
       <c r="E37">
-        <v>0.2137646500631906</v>
+        <v>0.08117608352949393</v>
       </c>
       <c r="F37">
-        <v>-0.02791723097973803</v>
+        <v>-0.02387355153412447</v>
       </c>
       <c r="G37">
-        <v>0.008013831072620629</v>
+        <v>0.001966180653984996</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.01818396063845525</v>
+        <v>0.01769430824563703</v>
       </c>
       <c r="C38">
-        <v>0.01810879277938046</v>
+        <v>0.006666485041278629</v>
       </c>
       <c r="D38">
-        <v>1.004150903927752</v>
+        <v>2.654218547866609</v>
       </c>
       <c r="E38">
-        <v>0.3447078731533924</v>
+        <v>0.02906495834125983</v>
       </c>
       <c r="F38">
-        <v>-0.02357499039435144</v>
+        <v>0.002321366173171802</v>
       </c>
       <c r="G38">
-        <v>0.05994291167126194</v>
+        <v>0.03306725031810227</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1632,22 +1632,22 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.008648643997930619</v>
+        <v>0.006031377515901601</v>
       </c>
       <c r="C39">
-        <v>0.01265376138026495</v>
+        <v>0.006915362399880986</v>
       </c>
       <c r="D39">
-        <v>0.6834840438368953</v>
+        <v>0.8721708519578674</v>
       </c>
       <c r="E39">
-        <v>0.5136060101359448</v>
+        <v>0.4085275281974967</v>
       </c>
       <c r="F39">
-        <v>-0.02053098207084712</v>
+        <v>-0.009915476774659357</v>
       </c>
       <c r="G39">
-        <v>0.03782827006670836</v>
+        <v>0.02197823180646256</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1665,22 +1665,22 @@
         </is>
       </c>
       <c r="B40">
-        <v>-0.004241265037811138</v>
+        <v>-0.00568074430417797</v>
       </c>
       <c r="C40">
-        <v>0.01276752072849526</v>
+        <v>0.01245455462503622</v>
       </c>
       <c r="D40">
-        <v>-0.3321917487351518</v>
+        <v>-0.4561178199627068</v>
       </c>
       <c r="E40">
-        <v>0.7430373814975658</v>
+        <v>0.6529872022990214</v>
       </c>
       <c r="F40">
-        <v>-0.03079277790763751</v>
+        <v>-0.03158140853232046</v>
       </c>
       <c r="G40">
-        <v>0.02231024783201523</v>
+        <v>0.02021991992396452</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1698,22 +1698,22 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.000117535470323859</v>
+        <v>0.0008709775904701567</v>
       </c>
       <c r="C41">
-        <v>0.005186720204478991</v>
+        <v>0.002913339798014651</v>
       </c>
       <c r="D41">
-        <v>0.02266084648683405</v>
+        <v>0.2989618962620496</v>
       </c>
       <c r="E41">
-        <v>0.9821347528436699</v>
+        <v>0.7679076301299474</v>
       </c>
       <c r="F41">
-        <v>-0.01066883967563943</v>
+        <v>-0.005187644187877255</v>
       </c>
       <c r="G41">
-        <v>0.01090391061628715</v>
+        <v>0.006929599368817568</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1731,22 +1731,22 @@
         </is>
       </c>
       <c r="B42">
-        <v>-0.002727179160060775</v>
+        <v>-0.003119558952611682</v>
       </c>
       <c r="C42">
-        <v>0.01455326830269671</v>
+        <v>0.0142966488857786</v>
       </c>
       <c r="D42">
-        <v>-0.1873929005730919</v>
+        <v>-0.2182021099864053</v>
       </c>
       <c r="E42">
-        <v>0.8555091550869509</v>
+        <v>0.8321389175550671</v>
       </c>
       <c r="F42">
-        <v>-0.03564895929313021</v>
+        <v>-0.03546082563358672</v>
       </c>
       <c r="G42">
-        <v>0.03019460097300866</v>
+        <v>0.02922170772836336</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.009722039991021071</v>
+        <v>0.009933968716546017</v>
       </c>
       <c r="C43">
-        <v>0.009832564781282619</v>
+        <v>0.009286049230123774</v>
       </c>
       <c r="D43">
-        <v>0.9887593122730354</v>
+        <v>1.069773427898746</v>
       </c>
       <c r="E43">
-        <v>0.348616542659249</v>
+        <v>0.312571373564494</v>
       </c>
       <c r="F43">
-        <v>-0.01252076685763477</v>
+        <v>-0.01107253406347523</v>
       </c>
       <c r="G43">
-        <v>0.03196484683967691</v>
+        <v>0.03094047149656726</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.01318893199790695</v>
+        <v>0.01382861032488997</v>
       </c>
       <c r="C44">
-        <v>0.004354775784927306</v>
+        <v>0.003653938194836821</v>
       </c>
       <c r="D44">
-        <v>3.028613331496035</v>
+        <v>3.784576965322077</v>
       </c>
       <c r="E44">
-        <v>0.005489874641303059</v>
+        <v>0.00147956875123142</v>
       </c>
       <c r="F44">
-        <v>0.004237562173299746</v>
+        <v>0.006119474600983094</v>
       </c>
       <c r="G44">
-        <v>0.02214030182251415</v>
+        <v>0.02153774604879684</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1830,22 +1830,22 @@
         </is>
       </c>
       <c r="B45">
-        <v>-0.003513723931407009</v>
+        <v>-0.004534100930737388</v>
       </c>
       <c r="C45">
-        <v>0.005106763366031816</v>
+        <v>0.005389670793038382</v>
       </c>
       <c r="D45">
-        <v>-0.6880530151012909</v>
+        <v>-0.8412574913840566</v>
       </c>
       <c r="E45">
-        <v>0.4975126929606358</v>
+        <v>0.4118813775472917</v>
       </c>
       <c r="F45">
-        <v>-0.01401082636646838</v>
+        <v>-0.01590531232928301</v>
       </c>
       <c r="G45">
-        <v>0.006983378503654358</v>
+        <v>0.006837110467808236</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1863,22 +1863,22 @@
         </is>
       </c>
       <c r="B46">
-        <v>-0.01341825778342786</v>
+        <v>-0.01387024526702822</v>
       </c>
       <c r="C46">
-        <v>0.001590200422847921</v>
+        <v>0.0005731731091978271</v>
       </c>
       <c r="D46">
-        <v>-8.438092199344808</v>
+        <v>-24.19905094019508</v>
       </c>
       <c r="E46">
-        <v>1.442184077870193e-05</v>
+        <v>1.681067472124478e-09</v>
       </c>
       <c r="F46">
-        <v>-0.01701554106025802</v>
+        <v>-0.0151668529215234</v>
       </c>
       <c r="G46">
-        <v>-0.009820974506597701</v>
+        <v>-0.01257363761253303</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1896,22 +1896,22 @@
         </is>
       </c>
       <c r="B47">
-        <v>-0.01047272428049469</v>
+        <v>-0.01107717360964438</v>
       </c>
       <c r="C47">
-        <v>0.004538466928065237</v>
+        <v>0.005352254076816396</v>
       </c>
       <c r="D47">
-        <v>-2.307546677432603</v>
+        <v>-2.06962775882143</v>
       </c>
       <c r="E47">
-        <v>0.04642252639303719</v>
+        <v>0.06840526881518523</v>
       </c>
       <c r="F47">
-        <v>-0.02073944974994023</v>
+        <v>-0.02318481350663049</v>
       </c>
       <c r="G47">
-        <v>-0.0002059988110491469</v>
+        <v>0.001030466287341722</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1929,22 +1929,22 @@
         </is>
       </c>
       <c r="B48">
-        <v>-0.002244875830102396</v>
+        <v>-0.001853777363372954</v>
       </c>
       <c r="C48">
-        <v>0.003560955032108338</v>
+        <v>0.0009959956784944156</v>
       </c>
       <c r="D48">
-        <v>-0.6304139787952531</v>
+        <v>-1.861230328002219</v>
       </c>
       <c r="E48">
-        <v>0.5329003079698776</v>
+        <v>0.07192009264784781</v>
       </c>
       <c r="F48">
-        <v>-0.009498303869565907</v>
+        <v>-0.003882554170840396</v>
       </c>
       <c r="G48">
-        <v>0.005008552209361115</v>
+        <v>0.0001749994440944885</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1962,22 +1962,22 @@
         </is>
       </c>
       <c r="B49">
-        <v>-0.004202833949685208</v>
+        <v>-0.003893313988241164</v>
       </c>
       <c r="C49">
-        <v>0.008002310220677081</v>
+        <v>0.001593739838802825</v>
       </c>
       <c r="D49">
-        <v>-0.5252025769790268</v>
+        <v>-2.442879253847176</v>
       </c>
       <c r="E49">
-        <v>0.6030627057800146</v>
+        <v>0.02027153689551903</v>
       </c>
       <c r="F49">
-        <v>-0.02050300646289392</v>
+        <v>-0.007139655806699365</v>
       </c>
       <c r="G49">
-        <v>0.0120973385635235</v>
+        <v>-0.0006469721697829624</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -1995,22 +1995,22 @@
         </is>
       </c>
       <c r="B50">
-        <v>-0.001766854232977111</v>
+        <v>-0.001965928793413682</v>
       </c>
       <c r="C50">
-        <v>0.002273603830445988</v>
+        <v>0.0007897640761105488</v>
       </c>
       <c r="D50">
-        <v>-0.7771161401634895</v>
+        <v>-2.489260847486936</v>
       </c>
       <c r="E50">
-        <v>0.4423112450644739</v>
+        <v>0.01770293598426805</v>
       </c>
       <c r="F50">
-        <v>-0.006382515394865858</v>
+        <v>-0.003569235105773014</v>
       </c>
       <c r="G50">
-        <v>0.002848806928911637</v>
+        <v>-0.0003626224810543495</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2028,22 +2028,22 @@
         </is>
       </c>
       <c r="B51">
-        <v>-0.001823887730038922</v>
+        <v>-0.002122668518210112</v>
       </c>
       <c r="C51">
-        <v>0.003060977022402083</v>
+        <v>0.001210708434245322</v>
       </c>
       <c r="D51">
-        <v>-0.5958514933926676</v>
+        <v>-1.753245007773691</v>
       </c>
       <c r="E51">
-        <v>0.5551084508938209</v>
+        <v>0.08831545946723085</v>
       </c>
       <c r="F51">
-        <v>-0.008038001451409517</v>
+        <v>-0.004580537309371098</v>
       </c>
       <c r="G51">
-        <v>0.004390225991331673</v>
+        <v>0.0003352002729508745</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2061,22 +2061,22 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.0005913427811934569</v>
+        <v>0.001432388561597342</v>
       </c>
       <c r="C52">
-        <v>0.008282046802499707</v>
+        <v>0.008776182980265331</v>
       </c>
       <c r="D52">
-        <v>0.07140056018700311</v>
+        <v>0.1632131605298454</v>
       </c>
       <c r="E52">
-        <v>0.9441657301615173</v>
+        <v>0.8728605428957765</v>
       </c>
       <c r="F52">
-        <v>-0.0173009315422848</v>
+        <v>-0.01752740207235009</v>
       </c>
       <c r="G52">
-        <v>0.01848361710467171</v>
+        <v>0.02039217919554477</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2094,22 +2094,22 @@
         </is>
       </c>
       <c r="B53">
-        <v>-0.006548100458030237</v>
+        <v>-0.006574239198073242</v>
       </c>
       <c r="C53">
-        <v>0.003867692563199567</v>
+        <v>0.003950656326100751</v>
       </c>
       <c r="D53">
-        <v>-1.693025066246034</v>
+        <v>-1.664087851590456</v>
       </c>
       <c r="E53">
-        <v>0.1142620887360859</v>
+        <v>0.1199993756793355</v>
       </c>
       <c r="F53">
-        <v>-0.01490374224440082</v>
+        <v>-0.01510911329743775</v>
       </c>
       <c r="G53">
-        <v>0.001807541328340341</v>
+        <v>0.001960634901291266</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2127,22 +2127,22 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.001078230227085195</v>
+        <v>0.0005376469887697864</v>
       </c>
       <c r="C54">
-        <v>0.003216500860404176</v>
+        <v>0.002497031090053656</v>
       </c>
       <c r="D54">
-        <v>0.3352183860288812</v>
+        <v>0.2153144952465264</v>
       </c>
       <c r="E54">
-        <v>0.7389843300163204</v>
+        <v>0.8304739531818273</v>
       </c>
       <c r="F54">
-        <v>-0.005396250198742925</v>
+        <v>-0.004488615902764201</v>
       </c>
       <c r="G54">
-        <v>0.007552710652913316</v>
+        <v>0.005563909880303774</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="B55">
-        <v>-0.002087672027611653</v>
+        <v>-0.001548292966824345</v>
       </c>
       <c r="C55">
-        <v>0.00348237019667686</v>
+        <v>0.00173251784856447</v>
       </c>
       <c r="D55">
-        <v>-0.5994974427485817</v>
+        <v>-0.8936663873952181</v>
       </c>
       <c r="E55">
-        <v>0.5517827776043864</v>
+        <v>0.3761523072096991</v>
       </c>
       <c r="F55">
-        <v>-0.009097319670310688</v>
+        <v>-0.005035670519249124</v>
       </c>
       <c r="G55">
-        <v>0.004921975615087382</v>
+        <v>0.001939084585600433</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2193,22 +2193,22 @@
         </is>
       </c>
       <c r="B56">
-        <v>-0.005240197554375165</v>
+        <v>-0.005295689682721577</v>
       </c>
       <c r="C56">
-        <v>0.004946470470872702</v>
+        <v>0.004332733602173908</v>
       </c>
       <c r="D56">
-        <v>-1.059381145653669</v>
+        <v>-1.222251393453896</v>
       </c>
       <c r="E56">
-        <v>0.3121344478344919</v>
+        <v>0.2563993714354875</v>
       </c>
       <c r="F56">
-        <v>-0.01612730565559748</v>
+        <v>-0.01528699128607265</v>
       </c>
       <c r="G56">
-        <v>0.005646910546847153</v>
+        <v>0.004695611920629496</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2226,22 +2226,22 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.01237148232790422</v>
+        <v>0.01222535252342496</v>
       </c>
       <c r="C57">
-        <v>0.002491493673633795</v>
+        <v>0.002225416577700666</v>
       </c>
       <c r="D57">
-        <v>4.965488156291664</v>
+        <v>5.493511932069985</v>
       </c>
       <c r="E57">
-        <v>0.0004250802002394837</v>
+        <v>0.0005781541236865809</v>
       </c>
       <c r="F57">
-        <v>0.006887741725774033</v>
+        <v>0.007093532692695321</v>
       </c>
       <c r="G57">
-        <v>0.0178552229300344</v>
+        <v>0.0173571723541546</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2259,22 +2259,22 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.006226778887854468</v>
+        <v>0.006146361386663178</v>
       </c>
       <c r="C58">
-        <v>0.002013040253696638</v>
+        <v>0.001403668049263231</v>
       </c>
       <c r="D58">
-        <v>3.093221249013748</v>
+        <v>4.378785561080008</v>
       </c>
       <c r="E58">
-        <v>0.004967644923927181</v>
+        <v>0.0002015988062326868</v>
       </c>
       <c r="F58">
-        <v>0.002072068003750661</v>
+        <v>0.003249332918785579</v>
       </c>
       <c r="G58">
-        <v>0.01038148977195827</v>
+        <v>0.009043389854540777</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2292,22 +2292,22 @@
         </is>
       </c>
       <c r="B59">
-        <v>-0.0007917262995611668</v>
+        <v>-0.001043789594923673</v>
       </c>
       <c r="C59">
-        <v>0.001875796800636755</v>
+        <v>0.001227176680098521</v>
       </c>
       <c r="D59">
-        <v>-0.4220746614411585</v>
+        <v>-0.8505617910208946</v>
       </c>
       <c r="E59">
-        <v>0.6767275400790342</v>
+        <v>0.403419160875756</v>
       </c>
       <c r="F59">
-        <v>-0.004663180618301818</v>
+        <v>-0.003576557779842466</v>
       </c>
       <c r="G59">
-        <v>0.003079728019179484</v>
+        <v>0.001488978589995119</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2325,22 +2325,22 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.004838363447561853</v>
+        <v>0.005472604455496441</v>
       </c>
       <c r="C60">
-        <v>0.005849048600537481</v>
+        <v>0.003067682430368957</v>
       </c>
       <c r="D60">
-        <v>0.8272052051537486</v>
+        <v>1.783954036871489</v>
       </c>
       <c r="E60">
-        <v>0.4195811942535285</v>
+        <v>0.09229071469040075</v>
       </c>
       <c r="F60">
-        <v>-0.007502050405356284</v>
+        <v>-0.0009996397239415535</v>
       </c>
       <c r="G60">
-        <v>0.01717877730047999</v>
+        <v>0.01194484863493444</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2358,22 +2358,22 @@
         </is>
       </c>
       <c r="B61">
-        <v>-0.006571338659842389</v>
+        <v>-0.006616405080744936</v>
       </c>
       <c r="C61">
-        <v>0.005558254220891525</v>
+        <v>0.004778419156290634</v>
       </c>
       <c r="D61">
-        <v>-1.182266661201468</v>
+        <v>-1.384643093110543</v>
       </c>
       <c r="E61">
-        <v>0.2533730468191926</v>
+        <v>0.1840673076488479</v>
       </c>
       <c r="F61">
-        <v>-0.01829823000063711</v>
+        <v>-0.01669798825410405</v>
       </c>
       <c r="G61">
-        <v>0.005155552680952335</v>
+        <v>0.003465178092614178</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2391,22 +2391,22 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.004273327417094046</v>
+        <v>0.004362063817339784</v>
       </c>
       <c r="C62">
-        <v>0.001910587984510631</v>
+        <v>0.001598901826060318</v>
       </c>
       <c r="D62">
-        <v>2.236655653515269</v>
+        <v>2.728162383858098</v>
       </c>
       <c r="E62">
-        <v>0.05212719242580978</v>
+        <v>0.0232944955142849</v>
       </c>
       <c r="F62">
-        <v>-4.87228772228631e-05</v>
+        <v>0.0007450965989063058</v>
       </c>
       <c r="G62">
-        <v>0.008595377711410956</v>
+        <v>0.007979031035773262</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.003217836230657832</v>
+        <v>0.003117418970447681</v>
       </c>
       <c r="C63">
-        <v>0.001733279262157705</v>
+        <v>0.001551888746689355</v>
       </c>
       <c r="D63">
-        <v>1.856501892633302</v>
+        <v>2.008790241631736</v>
       </c>
       <c r="E63">
-        <v>0.09634864727341744</v>
+        <v>0.07547521162301436</v>
       </c>
       <c r="F63">
-        <v>-0.0007031138673618065</v>
+        <v>-0.0003931972737415725</v>
       </c>
       <c r="G63">
-        <v>0.007138786328677471</v>
+        <v>0.006628035214636935</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="B64">
-        <v>-0.007513114529907056</v>
+        <v>-0.007106151768862576</v>
       </c>
       <c r="C64">
-        <v>0.002818902568937176</v>
+        <v>1.41395302550382e-12</v>
       </c>
       <c r="D64">
-        <v>-2.665262223922752</v>
+        <v>-5025733981.742787</v>
       </c>
       <c r="E64">
-        <v>0.01943887895284338</v>
+        <v>2.895096703076586e-120</v>
       </c>
       <c r="F64">
-        <v>-0.01360298328546138</v>
+        <v>-0.007106151771917236</v>
       </c>
       <c r="G64">
-        <v>-0.001423245774352737</v>
+        <v>-0.007106151765807916</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2490,22 +2490,22 @@
         </is>
       </c>
       <c r="B65">
-        <v>-0.0146407925339289</v>
+        <v>-0.01431616333430449</v>
       </c>
       <c r="C65">
-        <v>0.002818902568937175</v>
+        <v>1.413990354476323e-12</v>
       </c>
       <c r="D65">
-        <v>-5.193791617795783</v>
+        <v>-10124654166.82884</v>
       </c>
       <c r="E65">
-        <v>0.0001729492347190497</v>
+        <v>3.21598464962298e-124</v>
       </c>
       <c r="F65">
-        <v>-0.02073066128948322</v>
+        <v>-0.01431616333735923</v>
       </c>
       <c r="G65">
-        <v>-0.008550923778374582</v>
+        <v>-0.01431616333124975</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="B66">
-        <v>-0.01365827692029094</v>
+        <v>-0.008444961388777112</v>
       </c>
       <c r="C66">
-        <v>0.009399878243782408</v>
+        <v>0.008345907447802571</v>
       </c>
       <c r="D66">
-        <v>-1.453027003762019</v>
+        <v>-1.01186856451429</v>
       </c>
       <c r="E66">
-        <v>0.1551239542735781</v>
+        <v>0.3185453315340512</v>
       </c>
       <c r="F66">
-        <v>-0.03274104426758151</v>
+        <v>-0.02538805426700469</v>
       </c>
       <c r="G66">
-        <v>0.005424490426999634</v>
+        <v>0.008498131489450469</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2556,22 +2556,22 @@
         </is>
       </c>
       <c r="B67">
-        <v>-0.04256701748262065</v>
+        <v>-0.04501816601190322</v>
       </c>
       <c r="C67">
-        <v>0.005185063316851608</v>
+        <v>0.01236551838964919</v>
       </c>
       <c r="D67">
-        <v>-8.209546322081852</v>
+        <v>-3.640621007008213</v>
       </c>
       <c r="E67">
-        <v>1.129566832666725e-09</v>
+        <v>0.0008705008552276025</v>
       </c>
       <c r="F67">
-        <v>-0.05309325563064111</v>
+        <v>-0.07012150293165545</v>
       </c>
       <c r="G67">
-        <v>-0.03204077933460019</v>
+        <v>-0.01991482909215099</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.0006687049380425854</v>
+        <v>0.0006688322511077233</v>
       </c>
       <c r="C68">
-        <v>0.003673478279302207</v>
+        <v>0.003167581737580665</v>
       </c>
       <c r="D68">
-        <v>0.1820359036312606</v>
+        <v>0.2111491688352023</v>
       </c>
       <c r="E68">
-        <v>0.8627046148263549</v>
+        <v>0.8411070185084045</v>
       </c>
       <c r="F68">
-        <v>-0.008774271600336208</v>
+        <v>-0.007473695826410447</v>
       </c>
       <c r="G68">
-        <v>0.01011168147642138</v>
+        <v>0.008811360328625893</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.005902067750372633</v>
+        <v>0.005955376435263554</v>
       </c>
       <c r="C69">
-        <v>0.005026463812694024</v>
+        <v>0.004426583713384665</v>
       </c>
       <c r="D69">
-        <v>1.17419879468093</v>
+        <v>1.345366273601983</v>
       </c>
       <c r="E69">
-        <v>0.2931916346156468</v>
+        <v>0.2362973627629844</v>
       </c>
       <c r="F69">
-        <v>-0.007018868824021875</v>
+        <v>-0.005423519252286608</v>
       </c>
       <c r="G69">
-        <v>0.01882300432476714</v>
+        <v>0.01733427212281372</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2655,22 +2655,22 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.01309346860662777</v>
+        <v>0.01262366690033189</v>
       </c>
       <c r="C70">
-        <v>0.009756006055158899</v>
+        <v>0.00958771886112582</v>
       </c>
       <c r="D70">
-        <v>1.34209312013537</v>
+        <v>1.316649672688627</v>
       </c>
       <c r="E70">
-        <v>0.2124388558543741</v>
+        <v>0.2244223321701412</v>
       </c>
       <c r="F70">
-        <v>-0.008976150371352597</v>
+        <v>-0.009485652440599228</v>
       </c>
       <c r="G70">
-        <v>0.03516308758460813</v>
+        <v>0.034732986241263</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2688,22 +2688,22 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.01332092487165134</v>
+        <v>0.01304145533923188</v>
       </c>
       <c r="C71">
-        <v>0.003237859461866058</v>
+        <v>0.003774664240518331</v>
       </c>
       <c r="D71">
-        <v>4.114114595935601</v>
+        <v>3.454997453612204</v>
       </c>
       <c r="E71">
-        <v>0.002620861146752834</v>
+        <v>0.00863107844721072</v>
       </c>
       <c r="F71">
-        <v>0.005996377897857096</v>
+        <v>0.004337063991589315</v>
       </c>
       <c r="G71">
-        <v>0.02064547184544559</v>
+        <v>0.02174584668687444</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2721,22 +2721,22 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.001226824449272063</v>
+        <v>0.001463856509366014</v>
       </c>
       <c r="C72">
-        <v>0.002625619992336077</v>
+        <v>0.004075389332842104</v>
       </c>
       <c r="D72">
-        <v>0.4672513360094154</v>
+        <v>0.3591942731874274</v>
       </c>
       <c r="E72">
-        <v>0.6451320019681839</v>
+        <v>0.7230361936240058</v>
       </c>
       <c r="F72">
-        <v>-0.004233451237783827</v>
+        <v>-0.007011379569867929</v>
       </c>
       <c r="G72">
-        <v>0.006687100136327953</v>
+        <v>0.009939092588599957</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2754,22 +2754,22 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.01102482838112292</v>
+        <v>0.01163588316528904</v>
       </c>
       <c r="C73">
-        <v>0.003503145351834022</v>
+        <v>0.003688227491590785</v>
       </c>
       <c r="D73">
-        <v>3.147122735101764</v>
+        <v>3.154871328251588</v>
       </c>
       <c r="E73">
-        <v>0.004864193907188428</v>
+        <v>0.004777812339437226</v>
       </c>
       <c r="F73">
-        <v>0.003739638807355466</v>
+        <v>0.003965794211271603</v>
       </c>
       <c r="G73">
-        <v>0.01831001795489037</v>
+        <v>0.01930597211930648</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2787,22 +2787,22 @@
         </is>
       </c>
       <c r="B74">
-        <v>-0.003882200242916268</v>
+        <v>-0.003980237602066249</v>
       </c>
       <c r="C74">
-        <v>0.005043226431723741</v>
+        <v>0.003953134882345999</v>
       </c>
       <c r="D74">
-        <v>-0.7697850365186476</v>
+        <v>-1.006856006821646</v>
       </c>
       <c r="E74">
-        <v>0.4592251117396073</v>
+        <v>0.3377452291078219</v>
       </c>
       <c r="F74">
-        <v>-0.01511920899480404</v>
+        <v>-0.01278837102056356</v>
       </c>
       <c r="G74">
-        <v>0.0073548085089715</v>
+        <v>0.004827895816431058</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2820,22 +2820,22 @@
         </is>
       </c>
       <c r="B75">
-        <v>-0.002855028521568648</v>
+        <v>-0.003251377940012154</v>
       </c>
       <c r="C75">
-        <v>0.005403967931528533</v>
+        <v>0.004852747727937078</v>
       </c>
       <c r="D75">
-        <v>-0.5283207742428428</v>
+        <v>-0.6700076167763882</v>
       </c>
       <c r="E75">
-        <v>0.608800796476201</v>
+        <v>0.5180248977862412</v>
       </c>
       <c r="F75">
-        <v>-0.01489581942469527</v>
+        <v>-0.01406397369151688</v>
       </c>
       <c r="G75">
-        <v>0.009185762381557976</v>
+        <v>0.007561217811492566</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2853,22 +2853,22 @@
         </is>
       </c>
       <c r="B76">
-        <v>0.001825830946138662</v>
+        <v>0.001875836364201064</v>
       </c>
       <c r="C76">
-        <v>0.004113002721754164</v>
+        <v>0.004386709369585445</v>
       </c>
       <c r="D76">
-        <v>0.4439167852920748</v>
+        <v>0.4276181087370133</v>
       </c>
       <c r="E76">
-        <v>0.6650016467336328</v>
+        <v>0.6765024927439751</v>
       </c>
       <c r="F76">
-        <v>-0.007135632152475539</v>
+        <v>-0.007681982290273143</v>
       </c>
       <c r="G76">
-        <v>0.01078729404475286</v>
+        <v>0.01143365501867527</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2886,22 +2886,22 @@
         </is>
       </c>
       <c r="B77">
-        <v>-0.003881119477585997</v>
+        <v>-0.003806536508062902</v>
       </c>
       <c r="C77">
-        <v>0.004245283023001231</v>
+        <v>0.004002741259888266</v>
       </c>
       <c r="D77">
-        <v>-0.9142192538301519</v>
+        <v>-0.9509824045357252</v>
       </c>
       <c r="E77">
-        <v>0.3786050821538827</v>
+        <v>0.3603749701356387</v>
       </c>
       <c r="F77">
-        <v>-0.01313079659366955</v>
+        <v>-0.01252776051894582</v>
       </c>
       <c r="G77">
-        <v>0.00536855763849756</v>
+        <v>0.004914687502820017</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2919,22 +2919,22 @@
         </is>
       </c>
       <c r="B78">
-        <v>-0.0003880333338685282</v>
+        <v>-0.0001953258727538657</v>
       </c>
       <c r="C78">
-        <v>0.001890839270714781</v>
+        <v>0.002021330696262549</v>
       </c>
       <c r="D78">
-        <v>-0.2052175136609272</v>
+        <v>-0.09663231905349497</v>
       </c>
       <c r="E78">
-        <v>0.8389415250487643</v>
+        <v>0.9237321093344335</v>
       </c>
       <c r="F78">
-        <v>-0.004267715051280443</v>
+        <v>-0.004342753879243705</v>
       </c>
       <c r="G78">
-        <v>0.003491648383543387</v>
+        <v>0.003952102133735974</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -2952,22 +2952,22 @@
         </is>
       </c>
       <c r="B79">
-        <v>0.001930289629761839</v>
+        <v>0.001873292060173075</v>
       </c>
       <c r="C79">
-        <v>0.001904028059915024</v>
+        <v>0.001275562535474214</v>
       </c>
       <c r="D79">
-        <v>1.013792638039162</v>
+        <v>1.468600721701695</v>
       </c>
       <c r="E79">
-        <v>0.3196809686338135</v>
+        <v>0.1534963366342011</v>
       </c>
       <c r="F79">
-        <v>-0.001976453247806559</v>
+        <v>-0.0007439460757918833</v>
       </c>
       <c r="G79">
-        <v>0.005837032507330238</v>
+        <v>0.004490530196138034</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -2985,22 +2985,22 @@
         </is>
       </c>
       <c r="B80">
-        <v>-0.01125581977813594</v>
+        <v>-0.01033828175463443</v>
       </c>
       <c r="C80">
-        <v>0.003643781246922201</v>
+        <v>0.004218975659432372</v>
       </c>
       <c r="D80">
-        <v>-3.089049263767799</v>
+        <v>-2.450424602834842</v>
       </c>
       <c r="E80">
-        <v>0.009378886642413244</v>
+        <v>0.03056944672719508</v>
       </c>
       <c r="F80">
-        <v>-0.01919493710743088</v>
+        <v>-0.01953064004945944</v>
       </c>
       <c r="G80">
-        <v>-0.003316702448840995</v>
+        <v>-0.001145923459809427</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3018,22 +3018,22 @@
         </is>
       </c>
       <c r="B81">
-        <v>0.004177737555194162</v>
+        <v>0.004842624608149224</v>
       </c>
       <c r="C81">
-        <v>0.008471731776631851</v>
+        <v>0.003181931703150345</v>
       </c>
       <c r="D81">
-        <v>0.4931385536447103</v>
+        <v>1.521913434959862</v>
       </c>
       <c r="E81">
-        <v>0.6308153267069108</v>
+        <v>0.1539370105702466</v>
       </c>
       <c r="F81">
-        <v>-0.01428058032923086</v>
+        <v>-0.002090209009799642</v>
       </c>
       <c r="G81">
-        <v>0.02263605543961918</v>
+        <v>0.01177545822609809</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3051,22 +3051,22 @@
         </is>
       </c>
       <c r="B82">
-        <v>-0.02205135791668785</v>
+        <v>-0.02241376148103559</v>
       </c>
       <c r="C82">
-        <v>0.02560264625827174</v>
+        <v>0.01198110136993258</v>
       </c>
       <c r="D82">
-        <v>-0.8612921373142619</v>
+        <v>-1.87075968969635</v>
       </c>
       <c r="E82">
-        <v>0.4141454538256124</v>
+        <v>0.1035622059307085</v>
       </c>
       <c r="F82">
-        <v>-0.08109116606043194</v>
+        <v>-0.0507445643411697</v>
       </c>
       <c r="G82">
-        <v>0.03698845022705623</v>
+        <v>0.005917041379098521</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="B83">
-        <v>-0.008846610269695986</v>
+        <v>-0.009648038911517862</v>
       </c>
       <c r="C83">
-        <v>0.006461204850975944</v>
+        <v>0.007394173090646719</v>
       </c>
       <c r="D83">
-        <v>-1.369188947531935</v>
+        <v>-1.304816480929041</v>
       </c>
       <c r="E83">
-        <v>0.2081429723648311</v>
+        <v>0.2332108951388881</v>
       </c>
       <c r="F83">
-        <v>-0.02374617537444773</v>
+        <v>-0.02713247992213587</v>
       </c>
       <c r="G83">
-        <v>0.006052954835055758</v>
+        <v>0.007836402099100141</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="B84">
-        <v>-0.01701871497448663</v>
+        <v>-0.01681735541743019</v>
       </c>
       <c r="C84">
-        <v>0.008773570207249058</v>
+        <v>0.009159586592853663</v>
       </c>
       <c r="D84">
-        <v>-1.939770762924439</v>
+        <v>-1.836038695299976</v>
       </c>
       <c r="E84">
-        <v>0.07024531366784355</v>
+        <v>0.08500519395695727</v>
       </c>
       <c r="F84">
-        <v>-0.03561785294992362</v>
+        <v>-0.03623481157429662</v>
       </c>
       <c r="G84">
-        <v>0.001580423000950362</v>
+        <v>0.002600100739436242</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3150,22 +3150,22 @@
         </is>
       </c>
       <c r="B85">
-        <v>-0.005319958090116842</v>
+        <v>-0.005634409534056716</v>
       </c>
       <c r="C85">
-        <v>0.007621808339198305</v>
+        <v>0.008496198560775233</v>
       </c>
       <c r="D85">
-        <v>-0.6979915859018332</v>
+        <v>-0.6631682974158982</v>
       </c>
       <c r="E85">
-        <v>0.4952022056310336</v>
+        <v>0.5166641461792774</v>
       </c>
       <c r="F85">
-        <v>-0.02147746997803208</v>
+        <v>-0.02364554588628013</v>
       </c>
       <c r="G85">
-        <v>0.01083755379779839</v>
+        <v>0.0123767268181667</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3183,22 +3183,22 @@
         </is>
       </c>
       <c r="B86">
-        <v>-0.008680709720748593</v>
+        <v>-0.008962590000431569</v>
       </c>
       <c r="C86">
-        <v>0.005157185996283953</v>
+        <v>0.003807976262505055</v>
       </c>
       <c r="D86">
-        <v>-1.683226031987898</v>
+        <v>-2.353635995234797</v>
       </c>
       <c r="E86">
-        <v>0.1676192998962163</v>
+        <v>0.07820418632462371</v>
       </c>
       <c r="F86">
-        <v>-0.02299935353672578</v>
+        <v>-0.01953522705517312</v>
       </c>
       <c r="G86">
-        <v>0.005637934095228593</v>
+        <v>0.00161004705430998</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3216,22 +3216,22 @@
         </is>
       </c>
       <c r="B87">
-        <v>0.002173051986558388</v>
+        <v>0.001741654280308789</v>
       </c>
       <c r="C87">
-        <v>0.01036386470799982</v>
+        <v>0.002484720343794557</v>
       </c>
       <c r="D87">
-        <v>0.2096758350078632</v>
+        <v>0.7009457964388095</v>
       </c>
       <c r="E87">
-        <v>0.8441670354009541</v>
+        <v>0.5219689963454544</v>
       </c>
       <c r="F87">
-        <v>-0.02660164945289988</v>
+        <v>-0.005157035356004988</v>
       </c>
       <c r="G87">
-        <v>0.03094775342601666</v>
+        <v>0.008640343916622566</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3249,22 +3249,22 @@
         </is>
       </c>
       <c r="B88">
-        <v>-0.0008563878923674461</v>
+        <v>-0.0007279513035862405</v>
       </c>
       <c r="C88">
-        <v>0.004281387150162554</v>
+        <v>0.0005428651070939002</v>
       </c>
       <c r="D88">
-        <v>-0.2000258005947748</v>
+        <v>-1.340943254730729</v>
       </c>
       <c r="E88">
-        <v>0.8480676960974544</v>
+        <v>0.2284713397545754</v>
       </c>
       <c r="F88">
-        <v>-0.01133256484943998</v>
+        <v>-0.002056294367707387</v>
       </c>
       <c r="G88">
-        <v>0.00961978906470509</v>
+        <v>0.0006003917605349066</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3282,22 +3282,22 @@
         </is>
       </c>
       <c r="B89">
-        <v>0.002323683244903221</v>
+        <v>0.002069238267227328</v>
       </c>
       <c r="C89">
-        <v>0.00404173363192162</v>
+        <v>0.001435764417740386</v>
       </c>
       <c r="D89">
-        <v>0.5749224111531661</v>
+        <v>1.441210160705825</v>
       </c>
       <c r="E89">
-        <v>0.5862395482104421</v>
+        <v>0.1996063178214986</v>
       </c>
       <c r="F89">
-        <v>-0.007566082678216988</v>
+        <v>-0.001443950701993879</v>
       </c>
       <c r="G89">
-        <v>0.01221344916802343</v>
+        <v>0.005582427236448534</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3315,22 +3315,22 @@
         </is>
       </c>
       <c r="B90">
-        <v>-0.002031095544504782</v>
+        <v>-0.002930186888461779</v>
       </c>
       <c r="C90">
-        <v>0.006050717709954412</v>
+        <v>0.005887486822734957</v>
       </c>
       <c r="D90">
-        <v>-0.3356784503701603</v>
+        <v>-0.4976974007222657</v>
       </c>
       <c r="E90">
-        <v>0.737992104810552</v>
+        <v>0.6200626502543458</v>
       </c>
       <c r="F90">
-        <v>-0.01407240753142153</v>
+        <v>-0.01464665905750418</v>
       </c>
       <c r="G90">
-        <v>0.01001021644241196</v>
+        <v>0.008786285280580617</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3348,22 +3348,22 @@
         </is>
       </c>
       <c r="B91">
-        <v>0.001714434608193614</v>
+        <v>0.001935290637654603</v>
       </c>
       <c r="C91">
-        <v>0.005377181737469674</v>
+        <v>0.006247315509448411</v>
       </c>
       <c r="D91">
-        <v>0.3188351615953324</v>
+        <v>0.3097795580722118</v>
       </c>
       <c r="E91">
-        <v>0.7506824791696771</v>
+        <v>0.7575340862189281</v>
       </c>
       <c r="F91">
-        <v>-0.008986498076982211</v>
+        <v>-0.01049726343873426</v>
       </c>
       <c r="G91">
-        <v>0.01241536729336944</v>
+        <v>0.01436784471404347</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3381,22 +3381,22 @@
         </is>
       </c>
       <c r="B92">
-        <v>-0.01156788849568474</v>
+        <v>-0.01156788850884201</v>
       </c>
       <c r="C92">
-        <v>0.003906175682647508</v>
+        <v>0.003906175702589694</v>
       </c>
       <c r="D92">
-        <v>-2.961435796928702</v>
+        <v>-2.961435785178018</v>
       </c>
       <c r="E92">
-        <v>0.04149525448439605</v>
+        <v>0.04149525496833262</v>
       </c>
       <c r="F92">
-        <v>-0.02241317084981406</v>
+        <v>-0.02241317091833971</v>
       </c>
       <c r="G92">
-        <v>-0.0007226061415554156</v>
+        <v>-0.000722606099344299</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3414,22 +3414,22 @@
         </is>
       </c>
       <c r="B93">
-        <v>0.003284185985298367</v>
+        <v>0.003284185983917065</v>
       </c>
       <c r="C93">
-        <v>0.003273497690772461</v>
+        <v>0.003273497690837999</v>
       </c>
       <c r="D93">
-        <v>1.003265099149462</v>
+        <v>1.00326509870741</v>
       </c>
       <c r="E93">
-        <v>0.3725014649290904</v>
+        <v>0.3725014651182549</v>
       </c>
       <c r="F93">
-        <v>-0.005804500655123112</v>
+        <v>-0.005804500656686379</v>
       </c>
       <c r="G93">
-        <v>0.01237287262571984</v>
+        <v>0.01237287262452051</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3447,22 +3447,22 @@
         </is>
       </c>
       <c r="B94">
-        <v>0.00607893142855206</v>
+        <v>0.005842156654946211</v>
       </c>
       <c r="C94">
-        <v>0.008781789141762383</v>
+        <v>0.005891507896525016</v>
       </c>
       <c r="D94">
-        <v>0.6922201535952733</v>
+        <v>0.9916233259047461</v>
       </c>
       <c r="E94">
-        <v>0.4981459787701314</v>
+        <v>0.3352867207098256</v>
       </c>
       <c r="F94">
-        <v>-0.01244902410398568</v>
+        <v>-0.006587838482070263</v>
       </c>
       <c r="G94">
-        <v>0.02460688696108981</v>
+        <v>0.01827215179196268</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3480,22 +3480,22 @@
         </is>
       </c>
       <c r="B95">
-        <v>-0.002017723808648752</v>
+        <v>-0.001962418678633458</v>
       </c>
       <c r="C95">
-        <v>0.01098333687349234</v>
+        <v>0.005010186468659081</v>
       </c>
       <c r="D95">
-        <v>-0.1837077230616875</v>
+        <v>-0.3916857567895426</v>
       </c>
       <c r="E95">
-        <v>0.856416131666331</v>
+        <v>0.7001567616376391</v>
       </c>
       <c r="F95">
-        <v>-0.02519053904093396</v>
+        <v>-0.01253298813806008</v>
       </c>
       <c r="G95">
-        <v>0.02115509142363646</v>
+        <v>0.008608150780793165</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3513,22 +3513,22 @@
         </is>
       </c>
       <c r="B96">
-        <v>-0.007529798197228783</v>
+        <v>-0.007576353977067918</v>
       </c>
       <c r="C96">
-        <v>0.002637826964412027</v>
+        <v>0.001408494255094095</v>
       </c>
       <c r="D96">
-        <v>-2.854545919355699</v>
+        <v>-5.379044997639538</v>
       </c>
       <c r="E96">
-        <v>0.01353845663218542</v>
+        <v>0.0001255715137386054</v>
       </c>
       <c r="F96">
-        <v>-0.01322847689231692</v>
+        <v>-0.01061922081858111</v>
       </c>
       <c r="G96">
-        <v>-0.001831119502140648</v>
+        <v>-0.004533487135554728</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3546,22 +3546,22 @@
         </is>
       </c>
       <c r="B97">
-        <v>-0.004742863942867923</v>
+        <v>-0.0050496705341467</v>
       </c>
       <c r="C97">
-        <v>0.006591294408849432</v>
+        <v>0.00292011044819167</v>
       </c>
       <c r="D97">
-        <v>-0.7195648758307901</v>
+        <v>-1.729273814719507</v>
       </c>
       <c r="E97">
-        <v>0.4845288465229408</v>
+        <v>0.1074166930199083</v>
       </c>
       <c r="F97">
-        <v>-0.01898248978926468</v>
+        <v>-0.0113581856198295</v>
       </c>
       <c r="G97">
-        <v>0.009496761903528836</v>
+        <v>0.001258844551536099</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B98">
-        <v>-0.01773778435227403</v>
+        <v>-0.01946145329022162</v>
       </c>
       <c r="C98">
-        <v>0.007434226217185421</v>
+        <v>0.005185775188217804</v>
       </c>
       <c r="D98">
-        <v>-2.385962416810813</v>
+        <v>-3.752853254116853</v>
       </c>
       <c r="E98">
-        <v>0.03293876001442168</v>
+        <v>0.002414333103404775</v>
       </c>
       <c r="F98">
-        <v>-0.03379845365693536</v>
+        <v>-0.0306646394663098</v>
       </c>
       <c r="G98">
-        <v>-0.001677115047612702</v>
+        <v>-0.008258267114133442</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3612,22 +3612,22 @@
         </is>
       </c>
       <c r="B99">
-        <v>0.03298745317681058</v>
+        <v>0.03419500363089637</v>
       </c>
       <c r="C99">
-        <v>0.01035226869834386</v>
+        <v>0.008346345941562716</v>
       </c>
       <c r="D99">
-        <v>3.186495070601082</v>
+        <v>4.097002912449843</v>
       </c>
       <c r="E99">
-        <v>0.007151118461271524</v>
+        <v>0.001260200148035597</v>
       </c>
       <c r="F99">
-        <v>0.01062273635762765</v>
+        <v>0.01616381946274885</v>
       </c>
       <c r="G99">
-        <v>0.05535216999599352</v>
+        <v>0.05222618779904389</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3645,22 +3645,22 @@
         </is>
       </c>
       <c r="B100">
-        <v>-0.01047274196941886</v>
+        <v>-0.01160680308773698</v>
       </c>
       <c r="C100">
-        <v>0.01384261855583218</v>
+        <v>0.01218288876782356</v>
       </c>
       <c r="D100">
-        <v>-0.7565578670811873</v>
+        <v>-0.9527135401902305</v>
       </c>
       <c r="E100">
-        <v>0.4603105869802906</v>
+        <v>0.3549073784118233</v>
       </c>
       <c r="F100">
-        <v>-0.03981778240102597</v>
+        <v>-0.03743337354646923</v>
       </c>
       <c r="G100">
-        <v>0.01887229846218825</v>
+        <v>0.01421976737099528</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3678,22 +3678,22 @@
         </is>
       </c>
       <c r="B101">
-        <v>0.01071429417214192</v>
+        <v>0.00930806895181481</v>
       </c>
       <c r="C101">
-        <v>0.009882170042418337</v>
+        <v>0.009202282695173408</v>
       </c>
       <c r="D101">
-        <v>1.08420459536233</v>
+        <v>1.011495653866066</v>
       </c>
       <c r="E101">
-        <v>0.2943418169000956</v>
+        <v>0.326832154504194</v>
       </c>
       <c r="F101">
-        <v>-0.01023497046858624</v>
+        <v>-0.01019989889861534</v>
       </c>
       <c r="G101">
-        <v>0.03166355881287008</v>
+        <v>0.02881603680224496</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3711,22 +3711,22 @@
         </is>
       </c>
       <c r="B102">
-        <v>0.02705947716949447</v>
+        <v>0.02566827896291012</v>
       </c>
       <c r="C102">
-        <v>0.02575501944604765</v>
+        <v>0.02349894354325899</v>
       </c>
       <c r="D102">
-        <v>1.050648679422644</v>
+        <v>1.092316295652084</v>
       </c>
       <c r="E102">
-        <v>0.3048246603170061</v>
+        <v>0.2865119554922448</v>
       </c>
       <c r="F102">
-        <v>-0.0263531640230082</v>
+        <v>-0.02306554717565189</v>
       </c>
       <c r="G102">
-        <v>0.08047211836199715</v>
+        <v>0.07440210510147213</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="B103">
-        <v>-0.01047531407066673</v>
+        <v>-0.0133742589929128</v>
       </c>
       <c r="C103">
-        <v>0.0104789218671163</v>
+        <v>0.01086828907742247</v>
       </c>
       <c r="D103">
-        <v>-0.9996557091945792</v>
+        <v>-1.230576303007634</v>
       </c>
       <c r="E103">
-        <v>0.3283461905416064</v>
+        <v>0.2314769692963337</v>
       </c>
       <c r="F103">
-        <v>-0.03220726791154981</v>
+        <v>-0.03591371100477475</v>
       </c>
       <c r="G103">
-        <v>0.01125663977021634</v>
+        <v>0.009165193018949162</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3777,22 +3777,22 @@
         </is>
       </c>
       <c r="B104">
-        <v>-0.001379860220452569</v>
+        <v>-0.001124392530234655</v>
       </c>
       <c r="C104">
-        <v>0.002355544324558108</v>
+        <v>1.607791127455454e-12</v>
       </c>
       <c r="D104">
-        <v>-0.5857925092160706</v>
+        <v>-699339927.3288423</v>
       </c>
       <c r="E104">
-        <v>0.5894733847435079</v>
+        <v>2.508406711501263e-35</v>
       </c>
       <c r="F104">
-        <v>-0.007919899730448371</v>
+        <v>-0.001124392534698599</v>
       </c>
       <c r="G104">
-        <v>0.005160179289543234</v>
+        <v>-0.001124392525770711</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3810,22 +3810,22 @@
         </is>
       </c>
       <c r="B105">
-        <v>0.0074375423174966</v>
+        <v>0.007336224436581222</v>
       </c>
       <c r="C105">
-        <v>0.002355544324558108</v>
+        <v>1.60776433420246e-12</v>
       </c>
       <c r="D105">
-        <v>3.157462264647412</v>
+        <v>4562997374.997993</v>
       </c>
       <c r="E105">
-        <v>0.03426744054515349</v>
+        <v>1.384045522390488e-38</v>
       </c>
       <c r="F105">
-        <v>0.0008975028075008003</v>
+        <v>0.007336224432117353</v>
       </c>
       <c r="G105">
-        <v>0.0139775818274924</v>
+        <v>0.007336224441045092</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -3843,22 +3843,22 @@
         </is>
       </c>
       <c r="B106">
-        <v>-0.005362411663259064</v>
+        <v>-0.006383715959637431</v>
       </c>
       <c r="C106">
-        <v>0.004629422652505201</v>
+        <v>0.004273162459657085</v>
       </c>
       <c r="D106">
-        <v>-1.158332704912395</v>
+        <v>-1.493909024032219</v>
       </c>
       <c r="E106">
-        <v>0.2503552869924576</v>
+        <v>0.139339773342608</v>
       </c>
       <c r="F106">
-        <v>-0.01458270595872222</v>
+        <v>-0.01489445658709827</v>
       </c>
       <c r="G106">
-        <v>0.003857882632204094</v>
+        <v>0.002127024667823407</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="B107">
-        <v>0.000545155639625322</v>
+        <v>-0.0003954817329116556</v>
       </c>
       <c r="C107">
-        <v>0.005142484633547744</v>
+        <v>0.005026725025129378</v>
       </c>
       <c r="D107">
-        <v>0.1060101640496736</v>
+        <v>-0.07867582390812727</v>
       </c>
       <c r="E107">
-        <v>0.9158536034148492</v>
+        <v>0.9374972582159363</v>
       </c>
       <c r="F107">
-        <v>-0.009696990150530297</v>
+        <v>-0.01040707228167722</v>
       </c>
       <c r="G107">
-        <v>0.01078730142978094</v>
+        <v>0.009616108815853912</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="B108">
-        <v>0.003839092629081861</v>
+        <v>0.003784960508810206</v>
       </c>
       <c r="C108">
-        <v>0.001409005575297213</v>
+        <v>0.0008695149526138592</v>
       </c>
       <c r="D108">
-        <v>2.724682354980782</v>
+        <v>4.352956205562873</v>
       </c>
       <c r="E108">
-        <v>0.05273138615484361</v>
+        <v>0.01212892140885365</v>
       </c>
       <c r="F108">
-        <v>-7.293400364848665e-05</v>
+        <v>0.001370799974729166</v>
       </c>
       <c r="G108">
-        <v>0.00775111926181221</v>
+        <v>0.006199121042891246</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -3942,22 +3942,22 @@
         </is>
       </c>
       <c r="B109">
-        <v>0.0001411748602129467</v>
+        <v>5.823717003972337e-05</v>
       </c>
       <c r="C109">
-        <v>0.001533591712965464</v>
+        <v>0.002331166596427423</v>
       </c>
       <c r="D109">
-        <v>0.09205504895430142</v>
+        <v>0.02498198546983876</v>
       </c>
       <c r="E109">
-        <v>0.9310803312996261</v>
+        <v>0.9812659466309432</v>
       </c>
       <c r="F109">
-        <v>-0.004116758344621913</v>
+        <v>-0.006414118916011795</v>
       </c>
       <c r="G109">
-        <v>0.004399108065047807</v>
+        <v>0.006530593256091242</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -3975,22 +3975,22 @@
         </is>
       </c>
       <c r="B110">
-        <v>-0.0006072216867828876</v>
+        <v>-0.001173780349396634</v>
       </c>
       <c r="C110">
-        <v>0.003493057972409147</v>
+        <v>0.005644598765184225</v>
       </c>
       <c r="D110">
-        <v>-0.1738367045663686</v>
+        <v>-0.2079475261619104</v>
       </c>
       <c r="E110">
-        <v>0.8648918793149952</v>
+        <v>0.8387573967563424</v>
       </c>
       <c r="F110">
-        <v>-0.008217941211839334</v>
+        <v>-0.01347230455730382</v>
       </c>
       <c r="G110">
-        <v>0.007003497838273559</v>
+        <v>0.01112474385851055</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4008,22 +4008,22 @@
         </is>
       </c>
       <c r="B111">
-        <v>-0.004872726434395957</v>
+        <v>-0.00503205864389972</v>
       </c>
       <c r="C111">
-        <v>0.002368947981948651</v>
+        <v>0.002865190618054237</v>
       </c>
       <c r="D111">
-        <v>-2.056915758187205</v>
+        <v>-1.756273600852781</v>
       </c>
       <c r="E111">
-        <v>0.06210845805438597</v>
+        <v>0.1045059899730236</v>
       </c>
       <c r="F111">
-        <v>-0.01003422069027997</v>
+        <v>-0.01127477272195847</v>
       </c>
       <c r="G111">
-        <v>0.0002887678214880535</v>
+        <v>0.001210655434159028</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4041,22 +4041,22 @@
         </is>
       </c>
       <c r="B112">
-        <v>0.005001761132089247</v>
+        <v>0.005522878835852101</v>
       </c>
       <c r="C112">
-        <v>0.004587430289508896</v>
+        <v>0.003051792979739423</v>
       </c>
       <c r="D112">
-        <v>1.090318722341764</v>
+        <v>1.809716082485933</v>
       </c>
       <c r="E112">
-        <v>0.2845497639224894</v>
+        <v>0.08071591957042216</v>
       </c>
       <c r="F112">
-        <v>-0.004380587277231756</v>
+        <v>-0.0007187386279634564</v>
       </c>
       <c r="G112">
-        <v>0.01438410954141025</v>
+        <v>0.01176449629966766</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4074,22 +4074,22 @@
         </is>
       </c>
       <c r="B113">
-        <v>0.006294780305695956</v>
+        <v>0.006037158061779916</v>
       </c>
       <c r="C113">
-        <v>0.00497361297131652</v>
+        <v>0.00304139103068861</v>
       </c>
       <c r="D113">
-        <v>1.265635332302449</v>
+        <v>1.984998969505419</v>
       </c>
       <c r="E113">
-        <v>0.2157178476662682</v>
+        <v>0.05667546058111373</v>
       </c>
       <c r="F113">
-        <v>-0.003877400371736301</v>
+        <v>-0.000183185027500964</v>
       </c>
       <c r="G113">
-        <v>0.01646696098312821</v>
+        <v>0.0122575011510608</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4107,22 +4107,22 @@
         </is>
       </c>
       <c r="B114">
-        <v>0.013344800067969</v>
+        <v>0.0108236803880834</v>
       </c>
       <c r="C114">
-        <v>0.01052120930743362</v>
+        <v>0.01063801496928342</v>
       </c>
       <c r="D114">
-        <v>1.268371313413602</v>
+        <v>1.01745301349322</v>
       </c>
       <c r="E114">
-        <v>0.2099129709234068</v>
+        <v>0.3133137191560735</v>
       </c>
       <c r="F114">
-        <v>-0.007731714828203257</v>
+        <v>-0.01048682436609834</v>
       </c>
       <c r="G114">
-        <v>0.03442131496414125</v>
+        <v>0.03213418514226515</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4140,22 +4140,22 @@
         </is>
       </c>
       <c r="B115">
-        <v>0.02855460900702347</v>
+        <v>0.03062985986109428</v>
       </c>
       <c r="C115">
-        <v>0.01301920979320156</v>
+        <v>0.01284157732612791</v>
       </c>
       <c r="D115">
-        <v>2.19326744561212</v>
+        <v>2.385210093994741</v>
       </c>
       <c r="E115">
-        <v>0.03245697938195297</v>
+        <v>0.02047827409004674</v>
       </c>
       <c r="F115">
-        <v>0.002473997822059124</v>
+        <v>0.004905089267161274</v>
       </c>
       <c r="G115">
-        <v>0.05463522019198783</v>
+        <v>0.05635463045502729</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4173,22 +4173,22 @@
         </is>
       </c>
       <c r="B116">
-        <v>0.002693518073264977</v>
+        <v>0.002509863361784318</v>
       </c>
       <c r="C116">
-        <v>0.00179789819404793</v>
+        <v>0.002174989523100806</v>
       </c>
       <c r="D116">
-        <v>1.498148272344931</v>
+        <v>1.153965724950295</v>
       </c>
       <c r="E116">
-        <v>0.1579790153521156</v>
+        <v>0.2692884395575798</v>
       </c>
       <c r="F116">
-        <v>-0.001190604832667229</v>
+        <v>-0.002188915832057617</v>
       </c>
       <c r="G116">
-        <v>0.006577640979197183</v>
+        <v>0.007208642555626255</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4206,22 +4206,22 @@
         </is>
       </c>
       <c r="B117">
-        <v>-0.005941424439525172</v>
+        <v>-0.005694303864552621</v>
       </c>
       <c r="C117">
-        <v>0.002535918592107584</v>
+        <v>0.002210615206479311</v>
       </c>
       <c r="D117">
-        <v>-2.342908190356101</v>
+        <v>-2.575891022491215</v>
       </c>
       <c r="E117">
-        <v>0.03569467348947258</v>
+        <v>0.02303528032924045</v>
       </c>
       <c r="F117">
-        <v>-0.01141994348125565</v>
+        <v>-0.01047004766813055</v>
       </c>
       <c r="G117">
-        <v>-0.0004629053977946961</v>
+        <v>-0.0009185600609746955</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -4239,22 +4239,22 @@
         </is>
       </c>
       <c r="B118">
-        <v>0.0034097939685245</v>
+        <v>0.003417027716307981</v>
       </c>
       <c r="C118">
-        <v>0.001270280171185507</v>
+        <v>0.001280799290855976</v>
       </c>
       <c r="D118">
-        <v>2.684284967891974</v>
+        <v>2.667886952080005</v>
       </c>
       <c r="E118">
-        <v>0.02774118542688839</v>
+        <v>0.02845531974633683</v>
       </c>
       <c r="F118">
-        <v>0.0004805226409028652</v>
+        <v>0.0004634992552275379</v>
       </c>
       <c r="G118">
-        <v>0.006339065296146134</v>
+        <v>0.006370556177388424</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4272,22 +4272,22 @@
         </is>
       </c>
       <c r="B119">
-        <v>-0.001336453767616579</v>
+        <v>-0.001264916599268253</v>
       </c>
       <c r="C119">
-        <v>0.001598596670989282</v>
+        <v>0.001636351790392077</v>
       </c>
       <c r="D119">
-        <v>-0.836016858955125</v>
+        <v>-0.7730101844207801</v>
       </c>
       <c r="E119">
-        <v>0.4274081133070713</v>
+        <v>0.4617427210824865</v>
       </c>
       <c r="F119">
-        <v>-0.005022824301441476</v>
+        <v>-0.005038350594561124</v>
       </c>
       <c r="G119">
-        <v>0.002349916766208318</v>
+        <v>0.002508517396024618</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4305,22 +4305,22 @@
         </is>
       </c>
       <c r="B120">
-        <v>-0.00434669382562373</v>
+        <v>-0.003803539716340717</v>
       </c>
       <c r="C120">
-        <v>0.002943378269975701</v>
+        <v>0.002644917686420987</v>
       </c>
       <c r="D120">
-        <v>-1.476770372997153</v>
+        <v>-1.438055987854782</v>
       </c>
       <c r="E120">
-        <v>0.1738501535777001</v>
+        <v>0.1842661759820065</v>
       </c>
       <c r="F120">
-        <v>-0.01100507806187385</v>
+        <v>-0.00978675920568961</v>
       </c>
       <c r="G120">
-        <v>0.00231169041062639</v>
+        <v>0.002179679773008176</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -4338,22 +4338,22 @@
         </is>
       </c>
       <c r="B121">
-        <v>-0.01138667273505502</v>
+        <v>-0.01102408715038057</v>
       </c>
       <c r="C121">
-        <v>0.003049452541698992</v>
+        <v>0.002683834052151928</v>
       </c>
       <c r="D121">
-        <v>-3.734005556522278</v>
+        <v>-4.107588970168008</v>
       </c>
       <c r="E121">
-        <v>0.004668497088088619</v>
+        <v>0.00264652453385384</v>
       </c>
       <c r="F121">
-        <v>-0.01828501364487259</v>
+        <v>-0.01709534157521778</v>
       </c>
       <c r="G121">
-        <v>-0.004488331825237453</v>
+        <v>-0.004952832725543354</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -4371,22 +4371,22 @@
         </is>
       </c>
       <c r="B122">
-        <v>0.002321986732620377</v>
+        <v>0.001966229979687321</v>
       </c>
       <c r="C122">
-        <v>0.002381917633951408</v>
+        <v>0.001460323533638062</v>
       </c>
       <c r="D122">
-        <v>0.9748392217779541</v>
+        <v>1.346434495093638</v>
       </c>
       <c r="E122">
-        <v>0.3551118943359232</v>
+        <v>0.2110892525935155</v>
       </c>
       <c r="F122">
-        <v>-0.003066285304218154</v>
+        <v>-0.001337251361934806</v>
       </c>
       <c r="G122">
-        <v>0.007710258769458907</v>
+        <v>0.005269711321309448</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -4404,22 +4404,22 @@
         </is>
       </c>
       <c r="B123">
-        <v>0.0007450245087595872</v>
+        <v>0.001136037420476427</v>
       </c>
       <c r="C123">
-        <v>0.002347068980490227</v>
+        <v>0.00215724010757553</v>
       </c>
       <c r="D123">
-        <v>0.3174276150179343</v>
+        <v>0.5266161223718355</v>
       </c>
       <c r="E123">
-        <v>0.7581597225884762</v>
+        <v>0.6111909110145299</v>
       </c>
       <c r="F123">
-        <v>-0.00456441439703786</v>
+        <v>-0.003743978740751129</v>
       </c>
       <c r="G123">
-        <v>0.006054463414557034</v>
+        <v>0.006016053581703982</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
